--- a/Fuctionality&Requirements/ProgramFunctionality/SPSupplierCombination.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/SPSupplierCombination.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73948724-5B24-4129-9345-17BD5D80FC31}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F95A4-6DA9-49F1-9A63-E49DFDB1CB94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1305" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BrowseSPSupplierCombCallFromMen" sheetId="1" r:id="rId1"/>
     <sheet name="FilterCriteriaWindow" sheetId="2" r:id="rId2"/>
     <sheet name="SortCriteriaWindow" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -952,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -984,19 +985,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,21 +1015,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1054,14 +1049,105 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,119 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,11 +1481,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -1571,11 +1544,11 @@
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
@@ -1592,795 +1565,795 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="58"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="58"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="62"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="62"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="62"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="63"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="54"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="54"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="54"/>
+      <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="61"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="62"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="62"/>
+      <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="62"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="62"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="62"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="62"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="62"/>
+      <c r="B41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="62"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="62"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="62"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="36" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="62"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="62"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="62"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="53"/>
+      <c r="C49" s="62"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="62"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="62"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="53"/>
+      <c r="C53" s="62"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="62"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="62"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="62"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="62"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="53"/>
+      <c r="C58" s="62"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="62"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="62"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="62"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="62"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="63"/>
+      <c r="B64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="63"/>
     </row>
     <row r="65" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
     </row>
     <row r="66" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="30"/>
+      <c r="C66" s="28"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="28" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="45"/>
+      <c r="C67" s="74"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="75"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="46"/>
+      <c r="C69" s="75"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="46"/>
+      <c r="C70" s="75"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="46"/>
+      <c r="C71" s="75"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="46"/>
+      <c r="C72" s="75"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="46"/>
+      <c r="C73" s="75"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="46"/>
+      <c r="C74" s="75"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="46"/>
+      <c r="C75" s="75"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="46"/>
+      <c r="C76" s="75"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
+      <c r="A77" s="72"/>
       <c r="B77" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="46"/>
+      <c r="C77" s="75"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="29" t="s">
+      <c r="A78" s="73"/>
+      <c r="B78" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="47"/>
+      <c r="C78" s="76"/>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="33"/>
+      <c r="C79" s="31"/>
     </row>
     <row r="80" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="33"/>
+      <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="33"/>
+      <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="28" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C82" s="45"/>
+      <c r="C82" s="74"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="32" t="str">
+      <c r="A83" s="73"/>
+      <c r="B83" s="30" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1059","- (maint) sp_supplier_combination")</f>
         <v>- (maint) sp_supplier_combination</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="76"/>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="29" t="s">
+      <c r="A84" s="29"/>
+      <c r="B84" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="33"/>
+      <c r="C84" s="31"/>
     </row>
     <row r="85" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="35" t="s">
+      <c r="A85" s="29"/>
+      <c r="B85" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="33"/>
+      <c r="C85" s="31"/>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="36" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="33"/>
+      <c r="C86" s="31"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="45"/>
+      <c r="C87" s="74"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="36" t="s">
+      <c r="A88" s="72"/>
+      <c r="B88" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="46"/>
+      <c r="C88" s="75"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="37">
+      <c r="A89" s="72"/>
+      <c r="B89" s="34">
         <v>-1</v>
       </c>
-      <c r="C89" s="46"/>
+      <c r="C89" s="75"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="37">
+      <c r="A90" s="72"/>
+      <c r="B90" s="34">
         <v>-2</v>
       </c>
-      <c r="C90" s="46"/>
+      <c r="C90" s="75"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="37">
+      <c r="A91" s="72"/>
+      <c r="B91" s="34">
         <v>-3</v>
       </c>
-      <c r="C91" s="46"/>
+      <c r="C91" s="75"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="37">
+      <c r="A92" s="72"/>
+      <c r="B92" s="34">
         <v>-4</v>
       </c>
-      <c r="C92" s="46"/>
+      <c r="C92" s="75"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="38">
+      <c r="A93" s="73"/>
+      <c r="B93" s="35">
         <v>-5</v>
       </c>
-      <c r="C93" s="47"/>
+      <c r="C93" s="76"/>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="38" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="31"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="35" t="s">
+      <c r="A95" s="29"/>
+      <c r="B95" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="33"/>
+      <c r="C95" s="31"/>
     </row>
     <row r="96" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="35" t="s">
+      <c r="A96" s="29"/>
+      <c r="B96" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="33"/>
+      <c r="C96" s="31"/>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="35" t="s">
+      <c r="A97" s="29"/>
+      <c r="B97" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="33"/>
+      <c r="C97" s="31"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="39"/>
+      <c r="C98" s="68"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="36" t="s">
+      <c r="A99" s="69"/>
+      <c r="B99" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="40"/>
+      <c r="C99" s="69"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="36" t="s">
+      <c r="A100" s="69"/>
+      <c r="B100" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C100" s="40"/>
+      <c r="C100" s="69"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="41"/>
+      <c r="C101" s="70"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="35" t="s">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C102" s="34"/>
+      <c r="C102" s="32"/>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35" t="s">
+      <c r="A103" s="32"/>
+      <c r="B103" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="34"/>
+      <c r="C103" s="32"/>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="35" t="s">
+      <c r="A104" s="32"/>
+      <c r="B104" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C104" s="34"/>
+      <c r="C104" s="32"/>
     </row>
     <row r="105" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="35" t="s">
+      <c r="A105" s="29"/>
+      <c r="B105" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="33"/>
+      <c r="C105" s="31"/>
     </row>
     <row r="106" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="33"/>
+      <c r="C106" s="31"/>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="33"/>
+      <c r="C107" s="31"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="28" t="s">
+      <c r="A108" s="71"/>
+      <c r="B108" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="45"/>
+      <c r="C108" s="74"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
+      <c r="A109" s="72"/>
       <c r="B109" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C109" s="46"/>
+      <c r="C109" s="75"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="36" t="s">
+      <c r="A110" s="72"/>
+      <c r="B110" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="46"/>
+      <c r="C110" s="75"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="36" t="s">
+      <c r="A111" s="72"/>
+      <c r="B111" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="46"/>
+      <c r="C111" s="75"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="36" t="s">
+      <c r="A112" s="72"/>
+      <c r="B112" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="46"/>
+      <c r="C112" s="75"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="36" t="s">
+      <c r="A113" s="72"/>
+      <c r="B113" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="46"/>
+      <c r="C113" s="75"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
+      <c r="A114" s="73"/>
       <c r="B114" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="47"/>
+      <c r="C114" s="76"/>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="51"/>
+      <c r="C115" s="54"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
-      <c r="B116" s="85" t="str">
+      <c r="A116" s="55"/>
+      <c r="B116" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1076","- (maint) spare_part")</f>
         <v>- (maint) spare_part</v>
       </c>
-      <c r="C116" s="51"/>
+      <c r="C116" s="54"/>
     </row>
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="51"/>
+      <c r="C117" s="54"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="85" t="str">
+      <c r="A118" s="55"/>
+      <c r="B118" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$237","- (select) create_purchase_order")</f>
         <v>- (select) create_purchase_order</v>
       </c>
-      <c r="C118" s="51"/>
+      <c r="C118" s="54"/>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="51"/>
+      <c r="C119" s="54"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="85" t="str">
+      <c r="A120" s="55"/>
+      <c r="B120" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1225","- (select) tmplines [1]")</f>
         <v>- (select) tmplines [1]</v>
       </c>
-      <c r="C120" s="51"/>
+      <c r="C120" s="54"/>
     </row>
     <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="51"/>
+      <c r="C121" s="54"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="85" t="str">
+      <c r="A122" s="55"/>
+      <c r="B122" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1103","- (browse) stock_control [3]")</f>
         <v>- (browse) stock_control [3]</v>
       </c>
-      <c r="C122" s="51"/>
+      <c r="C122" s="54"/>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="51"/>
+      <c r="C123" s="54"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="B124" s="59" t="str">
+      <c r="A124" s="55"/>
+      <c r="B124" s="36" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1051","- (browse) sp_supplier_combination [1]")</f>
         <v>- (browse) sp_supplier_combination [1]</v>
       </c>
-      <c r="C124" s="51"/>
+      <c r="C124" s="54"/>
     </row>
     <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="51"/>
+      <c r="C125" s="54"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
-      <c r="B126" s="59" t="str">
+      <c r="A126" s="57"/>
+      <c r="B126" s="36" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1084","- (browse) spinclin")</f>
         <v>- (browse) spinclin</v>
       </c>
-      <c r="C126" s="51"/>
+      <c r="C126" s="54"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35" t="s">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="35"/>
+      <c r="C127" s="33"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="58"/>
@@ -2411,463 +2384,476 @@
       <c r="C131" s="58"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C132" s="55"/>
+      <c r="C132" s="59"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
-      <c r="B133" s="66" t="s">
+      <c r="B133" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="23"/>
+      <c r="C133" s="22"/>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
-      <c r="B134" s="66" t="s">
+      <c r="B134" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="23"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
-      <c r="B135" s="60" t="s">
+      <c r="B135" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="23"/>
+      <c r="C135" s="22"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
-      <c r="B136" s="66" t="s">
+      <c r="B136" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C136" s="23"/>
+      <c r="C136" s="22"/>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
-      <c r="B137" s="66" t="s">
+      <c r="B137" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C137" s="23"/>
+      <c r="C137" s="22"/>
     </row>
     <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
-      <c r="B138" s="84" t="s">
+      <c r="B138" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="23"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
-      <c r="B139" s="84" t="s">
+      <c r="B139" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="23"/>
+      <c r="C139" s="22"/>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
-      <c r="B140" s="67" t="s">
+      <c r="B140" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="23"/>
+      <c r="C140" s="22"/>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="55"/>
-      <c r="B141" s="68" t="s">
+      <c r="A141" s="59"/>
+      <c r="B141" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="51"/>
+      <c r="C141" s="54"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
-      <c r="B142" s="86" t="str">
+      <c r="A142" s="60"/>
+      <c r="B142" s="53" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1059","- (maint) sp_supplier_combination")</f>
         <v>- (maint) sp_supplier_combination</v>
       </c>
-      <c r="C142" s="51"/>
+      <c r="C142" s="54"/>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="23"/>
-      <c r="B143" s="69" t="s">
+      <c r="A143" s="22"/>
+      <c r="B143" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="23"/>
+      <c r="C143" s="22"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="23"/>
-      <c r="B144" s="66" t="s">
+      <c r="A144" s="22"/>
+      <c r="B144" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C144" s="23"/>
+      <c r="C144" s="22"/>
     </row>
     <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="70" t="s">
+      <c r="A145" s="54"/>
+      <c r="B145" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C145" s="51"/>
+      <c r="C145" s="54"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="51"/>
-      <c r="B146" s="85" t="str">
+      <c r="A146" s="54"/>
+      <c r="B146" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1076","- (maint) spare_part")</f>
         <v>- (maint) spare_part</v>
       </c>
-      <c r="C146" s="51"/>
+      <c r="C146" s="54"/>
     </row>
     <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="70" t="s">
+      <c r="A147" s="54"/>
+      <c r="B147" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C147" s="51"/>
+      <c r="C147" s="54"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="85" t="str">
+      <c r="A148" s="54"/>
+      <c r="B148" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$237","- (select) create_purchase_order")</f>
         <v>- (select) create_purchase_order</v>
       </c>
-      <c r="C148" s="51"/>
+      <c r="C148" s="54"/>
     </row>
     <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
-      <c r="B149" s="70" t="s">
+      <c r="A149" s="54"/>
+      <c r="B149" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C149" s="51"/>
+      <c r="C149" s="54"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="51"/>
-      <c r="B150" s="85" t="str">
+      <c r="A150" s="54"/>
+      <c r="B150" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1225","- (select) tmplines [1]")</f>
         <v>- (select) tmplines [1]</v>
       </c>
-      <c r="C150" s="51"/>
+      <c r="C150" s="54"/>
     </row>
     <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="51"/>
-      <c r="B151" s="70" t="s">
+      <c r="A151" s="54"/>
+      <c r="B151" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C151" s="51"/>
+      <c r="C151" s="54"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="51"/>
-      <c r="B152" s="85" t="str">
+      <c r="A152" s="54"/>
+      <c r="B152" s="52" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1103","- (browse) stock_control [3]")</f>
         <v>- (browse) stock_control [3]</v>
       </c>
-      <c r="C152" s="51"/>
+      <c r="C152" s="54"/>
     </row>
     <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="51"/>
-      <c r="B153" s="70" t="s">
+      <c r="A153" s="54"/>
+      <c r="B153" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="51"/>
+      <c r="C153" s="54"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="51"/>
-      <c r="B154" s="71" t="str">
+      <c r="A154" s="54"/>
+      <c r="B154" s="42" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1051","- (browse) sp_supplier_combination [1]")</f>
         <v>- (browse) sp_supplier_combination [1]</v>
       </c>
-      <c r="C154" s="51"/>
+      <c r="C154" s="54"/>
     </row>
     <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="51"/>
-      <c r="B155" s="70" t="s">
+      <c r="A155" s="54"/>
+      <c r="B155" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C155" s="51"/>
+      <c r="C155" s="54"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="51"/>
-      <c r="B156" s="71" t="str">
+      <c r="A156" s="54"/>
+      <c r="B156" s="42" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$1084","- (browse) spinclin")</f>
         <v>- (browse) spinclin</v>
       </c>
-      <c r="C156" s="51"/>
+      <c r="C156" s="54"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="23"/>
-      <c r="B157" s="72" t="s">
+      <c r="A157" s="22"/>
+      <c r="B157" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="23"/>
+      <c r="C157" s="22"/>
     </row>
     <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="51"/>
-      <c r="B158" s="24" t="s">
+      <c r="A158" s="54"/>
+      <c r="B158" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C158" s="51"/>
+      <c r="C158" s="54"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="51"/>
-      <c r="B159" s="36" t="s">
+      <c r="A159" s="54"/>
+      <c r="B159" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C159" s="51"/>
+      <c r="C159" s="54"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="51"/>
-      <c r="B160" s="36" t="s">
+      <c r="A160" s="54"/>
+      <c r="B160" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C160" s="51"/>
+      <c r="C160" s="54"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="51"/>
-      <c r="B161" s="36" t="s">
+      <c r="A161" s="54"/>
+      <c r="B161" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C161" s="51"/>
+      <c r="C161" s="54"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
-      <c r="B162" s="36" t="s">
+      <c r="A162" s="54"/>
+      <c r="B162" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C162" s="51"/>
+      <c r="C162" s="54"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="51"/>
-      <c r="B163" s="36" t="s">
+      <c r="A163" s="54"/>
+      <c r="B163" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C163" s="51"/>
+      <c r="C163" s="54"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="51"/>
-      <c r="B164" s="36" t="s">
+      <c r="A164" s="54"/>
+      <c r="B164" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C164" s="51"/>
+      <c r="C164" s="54"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="36" t="s">
+      <c r="A165" s="54"/>
+      <c r="B165" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C165" s="51"/>
+      <c r="C165" s="54"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
-      <c r="B166" s="36" t="s">
+      <c r="A166" s="54"/>
+      <c r="B166" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C166" s="51"/>
+      <c r="C166" s="54"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="36" t="s">
+      <c r="A167" s="54"/>
+      <c r="B167" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C167" s="51"/>
+      <c r="C167" s="54"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
-      <c r="B168" s="36" t="s">
+      <c r="A168" s="54"/>
+      <c r="B168" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C168" s="51"/>
+      <c r="C168" s="54"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="51"/>
-      <c r="B169" s="36" t="s">
+      <c r="A169" s="54"/>
+      <c r="B169" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C169" s="51"/>
+      <c r="C169" s="54"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="51"/>
-      <c r="B170" s="36" t="s">
+      <c r="A170" s="54"/>
+      <c r="B170" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C170" s="51"/>
+      <c r="C170" s="54"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="36" t="s">
+      <c r="A171" s="54"/>
+      <c r="B171" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C171" s="51"/>
+      <c r="C171" s="54"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
-      <c r="B172" s="36" t="s">
+      <c r="A172" s="54"/>
+      <c r="B172" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C172" s="51"/>
+      <c r="C172" s="54"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="51"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C173" s="51"/>
+      <c r="C173" s="54"/>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="23"/>
-      <c r="B174" s="62" t="s">
+      <c r="A174" s="22"/>
+      <c r="B174" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C174" s="23"/>
+      <c r="C174" s="22"/>
     </row>
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
-      <c r="B175" s="73" t="s">
+      <c r="A175" s="22"/>
+      <c r="B175" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C175" s="23"/>
+      <c r="C175" s="22"/>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="23"/>
-      <c r="B176" s="73" t="s">
+      <c r="A176" s="22"/>
+      <c r="B176" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C176" s="23"/>
+      <c r="C176" s="22"/>
     </row>
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="51"/>
-      <c r="B177" s="24" t="s">
+      <c r="A177" s="54"/>
+      <c r="B177" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C177" s="51"/>
+      <c r="C177" s="54"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="51"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C178" s="51"/>
+      <c r="C178" s="54"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="51"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C179" s="51"/>
+      <c r="C179" s="54"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C180" s="51"/>
+      <c r="C180" s="54"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="51"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C181" s="51"/>
+      <c r="C181" s="54"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="51"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C182" s="51"/>
+      <c r="C182" s="54"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="51"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C183" s="51"/>
+      <c r="C183" s="54"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="51"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C184" s="51"/>
+      <c r="C184" s="54"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="51"/>
-      <c r="B185" s="22" t="s">
+      <c r="A185" s="54"/>
+      <c r="B185" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="51"/>
+      <c r="C185" s="54"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C186" s="51"/>
+      <c r="C186" s="54"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C187" s="51"/>
+      <c r="C187" s="54"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="51"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C188" s="51"/>
+      <c r="C188" s="54"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="51"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C189" s="51"/>
+      <c r="C189" s="54"/>
     </row>
     <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="23"/>
-      <c r="B190" s="62" t="s">
+      <c r="A190" s="22"/>
+      <c r="B190" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C190" s="23"/>
+      <c r="C190" s="22"/>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="23"/>
-      <c r="B191" s="62" t="s">
+      <c r="A191" s="22"/>
+      <c r="B191" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C191" s="23"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
-      <c r="B192" s="24" t="s">
+      <c r="A192" s="54"/>
+      <c r="B192" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C192" s="51"/>
+      <c r="C192" s="54"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="51"/>
-      <c r="B193" s="74" t="str">
+      <c r="A193" s="54"/>
+      <c r="B193" s="36" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$375","- (browse) filter [1]")</f>
         <v>- (browse) filter [1]</v>
       </c>
-      <c r="C193" s="51"/>
+      <c r="C193" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A177:A185"/>
-    <mergeCell ref="C177:C185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="A35:A64"/>
+    <mergeCell ref="C35:C64"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A158:A173"/>
+    <mergeCell ref="C158:C173"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="A153:A154"/>
     <mergeCell ref="A151:A152"/>
     <mergeCell ref="C151:C152"/>
     <mergeCell ref="C123:C124"/>
@@ -2880,37 +2866,24 @@
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="A149:A150"/>
     <mergeCell ref="C149:C150"/>
-    <mergeCell ref="A158:A173"/>
-    <mergeCell ref="C158:C173"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="A153:A154"/>
     <mergeCell ref="A128:A132"/>
     <mergeCell ref="C128:C132"/>
     <mergeCell ref="A141:A142"/>
     <mergeCell ref="C141:C142"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A35:A64"/>
-    <mergeCell ref="C35:C64"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="C67:C78"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="C87:C93"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A177:A185"/>
+    <mergeCell ref="C177:C185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="C192:C193"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B79" location="FilterCriteriaWindow!A1" display="If the user clicks on the &quot;Filter&quot; item then the &quot;Filter criteria&quot; window should be opened." xr:uid="{C9F08884-6E9B-4D70-A568-E4E126E40879}"/>
@@ -2938,22 +2911,22 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2970,415 +2943,421 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="67"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="67"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="82" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="67"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="82" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="82" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="67"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="67"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="67"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="82" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="67"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="82" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="67"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="82" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="67"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="82" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="67"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="82" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="67"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="82" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="67"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="82" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="67"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="67"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="82" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="67"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="61" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="54"/>
+      <c r="B35" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="54"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="54"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="54"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="54"/>
+      <c r="B38" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="54"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="54"/>
+      <c r="B40" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="54"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="54"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="54"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="78" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="62"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="62"/>
+      <c r="B46" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="62"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="62"/>
+      <c r="B47" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="63"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="61"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="62"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="63"/>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="62" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="61" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="78" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="54"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="74" t="str">
+      <c r="A57" s="54"/>
+      <c r="B57" s="36" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$376","- (browse) filter [2]")</f>
         <v>- (browse) filter [2]</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="54"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="54"/>
+      <c r="B58" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="54"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="74" t="str">
+      <c r="A59" s="54"/>
+      <c r="B59" s="36" t="str">
         <f>HYPERLINK("[../DesignTable.xlsx]GroupDesign!$B$375","- (browse) filter [1]")</f>
         <v>- (browse) filter [1]</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="54"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="48" t="s">
         <v>185</v>
       </c>
       <c r="C60" s="58"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>186</v>
       </c>
       <c r="C61" s="58"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="25" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="58"/>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="62" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="62" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:A32"/>
+    <mergeCell ref="C8:C32"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="C35:C43"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="A60:A62"/>
@@ -3389,12 +3368,6 @@
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:A32"/>
-    <mergeCell ref="C8:C32"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="C35:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3418,22 +3391,22 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -3450,36 +3423,36 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="60"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="21" t="s">
         <v>150</v>
       </c>
       <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="58"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C11" s="58"/>
@@ -3493,269 +3466,269 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="50" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="58"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="58"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="58"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="58"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="58"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="58"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="58"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="58"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="58"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="58"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="58"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="58"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="58"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="58"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="62" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="59"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="67"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="67"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="60"/>
     </row>
     <row r="40" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="79" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="55"/>
+      <c r="C42" s="59"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="79" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="67"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="79" t="s">
+      <c r="A44" s="67"/>
+      <c r="B44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="67"/>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="79" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="67"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="81" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="C42:C46"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="A13:A34"/>
     <mergeCell ref="C13:C34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="C42:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
